--- a/New Terminals/Documentation/MILL-NewTerminals2021-Changes.xlsx
+++ b/New Terminals/Documentation/MILL-NewTerminals2021-Changes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\105864\Documents\Millennium\New Terminals\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\105864\Documents\Millennium\New Terminals\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64EB08B6-0C83-4B5A-A779-9D825E9DAF52}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F5359F-B91F-4A00-9EC7-7F3BE9B86B23}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0388F361-8B5F-46E5-9EBD-DCE0B56DC71F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="112">
   <si>
     <t>Ficheiros Novos</t>
   </si>
@@ -377,6 +377,21 @@
   </si>
   <si>
     <t>ficheiro de código fonte que contêm subroutines que servem para invocar RTL (Remove from The bottom of the List) e ABL (Add to the Bottom of the List) respectivamente.</t>
+  </si>
+  <si>
+    <t>LOTGEN.COM</t>
+  </si>
+  <si>
+    <t>ver</t>
+  </si>
+  <si>
+    <t>DSS_LOCAILS.COM</t>
+  </si>
+  <si>
+    <t>scansubs.for</t>
+  </si>
+  <si>
+    <t>In day rotation is done a validation if the transactions from TMF haves retrys/unprinted tickets now from the new channel OLM its ignored the retry's since that concept is has been droped</t>
   </si>
 </sst>
 </file>
@@ -976,10 +991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A849B54-E80B-432E-A0A3-476BEDB1F586}">
-  <dimension ref="D3:J70"/>
+  <dimension ref="D3:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1556,9 +1571,16 @@
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
+    <row r="51" spans="4:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="D51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="52" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D52" s="1"/>
@@ -1574,11 +1596,21 @@
     </row>
     <row r="55" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
+      <c r="E55" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="56" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
+      <c r="E56" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="57" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D57" s="1"/>
@@ -1635,6 +1667,14 @@
     <row r="70" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
+    </row>
+    <row r="71" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
